--- a/data/access_data/konkordanzen/Konkordanz_Access-APIS_Hofstäbe_12.07.2021.xlsx
+++ b/data/access_data/konkordanzen/Konkordanz_Access-APIS_Hofstäbe_12.07.2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20375"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstandhartinger\Desktop\gemeinsame Dateien\Import ACCESS\Konkordanzen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gregorpirgie/gregor/arbeit/acdh/viecpro_import_for_upload/viecpro_import_app/data/access_data/konkordanzen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61978AFB-1C83-49D8-B199-E23348330BCB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CDB70B3-0336-9A43-A090-29A5C7C3DACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{7DBF4C8A-61EE-43C3-A2D0-EDC4D3811589}"/>
+    <workbookView xWindow="26840" yWindow="-2020" windowWidth="34340" windowHeight="17060" xr2:uid="{7DBF4C8A-61EE-43C3-A2D0-EDC4D3811589}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1267,12 +1267,6 @@
     <t>untersteht (teilweise) dem Hofstaat der Jungen Herrschaft</t>
   </si>
   <si>
-    <t>1717-1735</t>
-  </si>
-  <si>
-    <t>1719-1736</t>
-  </si>
-  <si>
     <t>EC (Ksin.)</t>
   </si>
   <si>
@@ -1372,9 +1366,6 @@
     <t>MAN (MT)*</t>
   </si>
   <si>
-    <t>MAN (K)*</t>
-  </si>
-  <si>
     <t>MC*</t>
   </si>
   <si>
@@ -1418,6 +1409,15 @@
   </si>
   <si>
     <t>1793-1800</t>
+  </si>
+  <si>
+    <t>MAN (K6)*</t>
+  </si>
+  <si>
+    <t>1717-1734</t>
+  </si>
+  <si>
+    <t>1719-1735</t>
   </si>
 </sst>
 </file>
@@ -1896,25 +1896,25 @@
   <dimension ref="A1:J89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F58" sqref="F58"/>
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="42.90625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="42.83203125" style="3" customWidth="1"/>
     <col min="2" max="2" width="25" style="3" customWidth="1"/>
     <col min="3" max="3" width="30" style="3" customWidth="1"/>
-    <col min="4" max="4" width="25.7265625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="20.90625" style="3" customWidth="1"/>
-    <col min="6" max="8" width="21.6328125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="60.54296875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="34.26953125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="44.08984375" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="10.90625" style="3"/>
+    <col min="4" max="4" width="25.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" style="3" customWidth="1"/>
+    <col min="6" max="8" width="21.6640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="60.5" style="3" customWidth="1"/>
+    <col min="10" max="10" width="34.33203125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="44.1640625" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1963,7 +1963,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="65.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="65.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>127</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>324</v>
@@ -2041,7 +2041,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>131</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>324</v>
@@ -2073,7 +2073,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>135</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>324</v>
@@ -2128,7 +2128,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>144</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>324</v>
@@ -2183,7 +2183,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>131</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>324</v>
@@ -2238,7 +2238,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>299</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>324</v>
@@ -2270,7 +2270,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>154</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>324</v>
@@ -2302,7 +2302,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="87" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="80" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
@@ -2322,7 +2322,7 @@
         <v>157</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>324</v>
@@ -2334,7 +2334,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="30.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -2357,7 +2357,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>18</v>
       </c>
@@ -2400,7 +2400,7 @@
         <v>167</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>324</v>
@@ -2412,7 +2412,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>19</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>170</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>324</v>
@@ -2444,7 +2444,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>20</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>173</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>324</v>
@@ -2476,7 +2476,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="13" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" s="13" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>22</v>
       </c>
@@ -2519,7 +2519,7 @@
         <v>179</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>181</v>
@@ -2531,7 +2531,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>23</v>
       </c>
@@ -2555,7 +2555,7 @@
       </c>
       <c r="J23" s="9"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
@@ -2629,7 +2629,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>28</v>
       </c>
@@ -2637,7 +2637,7 @@
         <v>94</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>204</v>
@@ -2649,7 +2649,7 @@
         <v>203</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="H28" s="7" t="s">
         <v>389</v>
@@ -2658,10 +2658,10 @@
         <v>266</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>30</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>94</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>211</v>
@@ -2704,7 +2704,7 @@
         <v>210</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>389</v>
@@ -2713,10 +2713,10 @@
         <v>128</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
@@ -2739,7 +2739,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>32</v>
       </c>
@@ -2759,7 +2759,7 @@
         <v>216</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>389</v>
@@ -2771,7 +2771,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
@@ -2779,10 +2779,10 @@
         <v>90</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>220</v>
@@ -2794,7 +2794,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>37</v>
       </c>
@@ -2871,7 +2871,7 @@
         <v>94</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>238</v>
@@ -2883,7 +2883,7 @@
         <v>237</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="H37" s="7" t="s">
         <v>389</v>
@@ -2895,7 +2895,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>38</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v>90</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>243</v>
@@ -2915,7 +2915,7 @@
         <v>242</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H38" s="7" t="s">
         <v>389</v>
@@ -2924,10 +2924,10 @@
         <v>239</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>39</v>
       </c>
@@ -2935,7 +2935,7 @@
         <v>94</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>246</v>
@@ -2947,7 +2947,7 @@
         <v>245</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H39" s="7" t="s">
         <v>389</v>
@@ -2956,10 +2956,10 @@
         <v>239</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>40</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v>248</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="H40" s="5" t="s">
         <v>249</v>
@@ -2991,7 +2991,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
@@ -3037,7 +3037,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
@@ -3060,7 +3060,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>44</v>
       </c>
@@ -3068,7 +3068,7 @@
         <v>90</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>372</v>
@@ -3080,7 +3080,7 @@
         <v>265</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="H44" s="7" t="s">
         <v>389</v>
@@ -3092,7 +3092,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
         <v>45</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>46</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>90</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>363</v>
@@ -3123,7 +3123,7 @@
         <v>269</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H46" s="7" t="s">
         <v>389</v>
@@ -3135,7 +3135,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>47</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>48</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>90</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>365</v>
@@ -3178,7 +3178,7 @@
         <v>276</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H48" s="7" t="s">
         <v>389</v>
@@ -3190,7 +3190,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>49</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>90</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>366</v>
@@ -3210,7 +3210,7 @@
         <v>281</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>402</v>
+        <v>451</v>
       </c>
       <c r="H49" s="7" t="s">
         <v>249</v>
@@ -3222,7 +3222,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>50</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>90</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>286</v>
@@ -3242,7 +3242,7 @@
         <v>285</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="H50" s="7" t="s">
         <v>389</v>
@@ -3254,7 +3254,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>51</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>90</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>367</v>
@@ -3274,7 +3274,7 @@
         <v>289</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="H51" s="7" t="s">
         <v>389</v>
@@ -3286,7 +3286,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>52</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>90</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>368</v>
@@ -3306,7 +3306,7 @@
         <v>292</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H52" s="7" t="s">
         <v>389</v>
@@ -3318,7 +3318,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>53</v>
       </c>
@@ -3338,7 +3338,7 @@
         <v>296</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>389</v>
@@ -3350,7 +3350,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>54</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>90</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>300</v>
@@ -3370,7 +3370,7 @@
         <v>301</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>401</v>
+        <v>450</v>
       </c>
       <c r="H54" s="7" t="s">
         <v>249</v>
@@ -3382,7 +3382,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>55</v>
       </c>
@@ -3414,7 +3414,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>56</v>
       </c>
@@ -3422,7 +3422,7 @@
         <v>94</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>313</v>
@@ -3434,7 +3434,7 @@
         <v>310</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="H56" s="7" t="s">
         <v>389</v>
@@ -3446,7 +3446,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>57</v>
       </c>
@@ -3454,7 +3454,7 @@
         <v>95</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>369</v>
@@ -3466,7 +3466,7 @@
         <v>315</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H57" s="7" t="s">
         <v>324</v>
@@ -3478,7 +3478,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>58</v>
       </c>
@@ -3495,7 +3495,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>59</v>
       </c>
@@ -3509,7 +3509,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>60</v>
       </c>
@@ -3523,7 +3523,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>61</v>
       </c>
@@ -3537,7 +3537,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,7 +3551,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>63</v>
       </c>
@@ -3565,7 +3565,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>64</v>
       </c>
@@ -3579,7 +3579,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>65</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>66</v>
       </c>
@@ -3607,7 +3607,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>67</v>
       </c>
@@ -3621,7 +3621,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>68</v>
       </c>
@@ -3635,7 +3635,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>69</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>70</v>
       </c>
@@ -3663,7 +3663,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>71</v>
       </c>
@@ -3677,7 +3677,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>72</v>
       </c>
@@ -3691,7 +3691,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>73</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>74</v>
       </c>
@@ -3719,7 +3719,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>75</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>76</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>77</v>
       </c>
@@ -3761,7 +3761,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>78</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>79</v>
       </c>
@@ -3789,7 +3789,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>80</v>
       </c>
@@ -3803,7 +3803,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>81</v>
       </c>
@@ -3817,7 +3817,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>82</v>
       </c>
@@ -3831,7 +3831,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>83</v>
       </c>
@@ -3845,7 +3845,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>84</v>
       </c>
@@ -3859,7 +3859,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>85</v>
       </c>
@@ -3873,7 +3873,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>86</v>
       </c>
@@ -3887,7 +3887,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>87</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>88</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>89</v>
       </c>
@@ -3941,6 +3941,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010036634E75948AF6478BDD5B6ECE439029" ma:contentTypeVersion="10" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="689acecceb92d855f609934e3bacd9aa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e0a64e4-7fea-442c-b385-37491aef63de" xmlns:ns3="2b3e05ff-c908-49af-94f9-52f298489e32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6720c8b3d948ac14627f0ba1b583f722" ns2:_="" ns3:_="">
     <xsd:import namespace="1e0a64e4-7fea-442c-b385-37491aef63de"/>
@@ -4143,29 +4158,38 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA2EE4AA-B694-42B0-9A1A-E88C3B507E46}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A75CD9FA-A661-4898-8B6C-16ECFBF4FAE9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4586992-7084-46E8-8457-6EDCFFB21E1E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4586992-7084-46E8-8457-6EDCFFB21E1E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A75CD9FA-A661-4898-8B6C-16ECFBF4FAE9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA2EE4AA-B694-42B0-9A1A-E88C3B507E46}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1e0a64e4-7fea-442c-b385-37491aef63de"/>
+    <ds:schemaRef ds:uri="2b3e05ff-c908-49af-94f9-52f298489e32"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>